--- a/grilla meses.xlsx
+++ b/grilla meses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Entrenamiento</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>N° experimento</t>
+  </si>
+  <si>
+    <t>Eze</t>
+  </si>
+  <si>
+    <t>Migue</t>
   </si>
 </sst>
 </file>
@@ -650,35 +656,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" customWidth="1"/>
-    <col min="3" max="11" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" customWidth="1"/>
+    <col min="4" max="12" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
@@ -710,17 +715,17 @@
       <c r="AG1" s="33"/>
       <c r="AH1" s="33"/>
       <c r="AI1" s="33"/>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33">
+    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33">
         <v>2019</v>
       </c>
-      <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -731,10 +736,10 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33">
         <v>2020</v>
       </c>
-      <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
@@ -745,10 +750,10 @@
       <c r="X2" s="33"/>
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
-      <c r="AA2" s="33">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33">
         <v>2021</v>
       </c>
-      <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
       <c r="AE2" s="33"/>
@@ -756,121 +761,124 @@
       <c r="AG2" s="33"/>
       <c r="AH2" s="33"/>
       <c r="AI2" s="33"/>
-      <c r="AJ2" s="29"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="29"/>
     </row>
-    <row r="3" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="1">
+    <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>8</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>11</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>12</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>4</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>5</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>6</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>7</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>8</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>9</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>10</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>11</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>12</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>1</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>2</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>3</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <v>4</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>5</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>6</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <v>7</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>8</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>9</v>
       </c>
-      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
     </row>
-    <row r="4" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -890,31 +898,34 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="13"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="11"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="15"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="2">
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -926,39 +937,42 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="13"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="11"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="15"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="2">
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:37" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -970,39 +984,42 @@
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="11"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="13"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="16"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="11"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="15"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="2">
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1020,46 +1037,49 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="8"/>
+      <c r="V7" s="5"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="13"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="16"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="5"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="15"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="2">
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="10"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -1067,73 +1087,79 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="13"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="5"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="15"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="2">
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="13"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="20"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="15"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
-      <c r="AJ9" s="2">
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1147,87 +1173,96 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
-      <c r="R10" s="8"/>
+      <c r="Q10" s="19"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="13"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="20"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="15"/>
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
-      <c r="AJ10" s="2">
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="7"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="13"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="15"/>
-      <c r="AJ11" s="2">
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="15"/>
+      <c r="AK11" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="13"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="15"/>
-      <c r="AJ12" s="2">
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="15"/>
+      <c r="AK12" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1240,62 +1275,66 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="T13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="13"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="16"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="5"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="15"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="2">
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="U14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="13"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="16"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="15"/>
-      <c r="AJ14" s="2">
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="15"/>
+      <c r="AK14" s="2">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AJ1:AJ3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AA2:AI2"/>
-    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="AB2:AJ2"/>
+    <mergeCell ref="D1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/grilla meses.xlsx
+++ b/grilla meses.xlsx
@@ -102,7 +102,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +349,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -376,6 +381,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,9 +664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomLeft" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,96 +683,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="29" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="28"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33">
+      <c r="B2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="32">
         <v>2019</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32">
         <v>2020</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32">
         <v>2021</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="29"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="28"/>
     </row>
     <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -866,7 +872,7 @@
       <c r="AJ3" s="1">
         <v>9</v>
       </c>
-      <c r="AK3" s="29"/>
+      <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -905,7 +911,7 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="17"/>
+      <c r="AE4" s="33"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
@@ -925,20 +931,20 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
       <c r="R5" s="7"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -952,7 +958,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="17"/>
+      <c r="AE5" s="33"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
@@ -972,20 +978,20 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="7"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -999,7 +1005,7 @@
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="33"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
@@ -1046,7 +1052,7 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="33"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -1079,7 +1085,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -1093,7 +1099,7 @@
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="17"/>
+      <c r="AE8" s="33"/>
       <c r="AF8" s="15"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -1110,15 +1116,15 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -1126,7 +1132,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="7"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -1140,12 +1146,12 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="17"/>
+      <c r="AE9" s="33"/>
       <c r="AF9" s="15"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
       <c r="AK9" s="2">
         <v>22</v>
       </c>
@@ -1157,23 +1163,23 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -1186,12 +1192,12 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="17"/>
+      <c r="AE10" s="33"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
       <c r="AK10" s="2">
         <v>13</v>
       </c>
@@ -1203,7 +1209,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="R11" s="7"/>
@@ -1218,7 +1224,7 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="17"/>
+      <c r="AE11" s="33"/>
       <c r="AF11" s="15"/>
       <c r="AK11" s="2">
         <v>13</v>
@@ -1231,7 +1237,7 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="R12" s="7"/>
@@ -1246,7 +1252,7 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="17"/>
+      <c r="AE12" s="33"/>
       <c r="AF12" s="15"/>
       <c r="AK12" s="2">
         <v>13</v>
@@ -1259,7 +1265,7 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4"/>
@@ -1288,7 +1294,7 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="17"/>
+      <c r="AE13" s="33"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
@@ -1305,7 +1311,7 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R14" s="7"/>
@@ -1320,7 +1326,7 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
-      <c r="AE14" s="17"/>
+      <c r="AE14" s="33"/>
       <c r="AF14" s="15"/>
       <c r="AK14" s="2">
         <v>13</v>

--- a/grilla meses.xlsx
+++ b/grilla meses.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Entrenamiento</t>
   </si>
@@ -72,13 +73,28 @@
   </si>
   <si>
     <t>Migue</t>
+  </si>
+  <si>
+    <t>Cuarentena total y baseline, menos 202008</t>
+  </si>
+  <si>
+    <t>Cuarentena total y baseline, menos 202009</t>
+  </si>
+  <si>
+    <t>Cuarentena total y baseline, menos 202010</t>
+  </si>
+  <si>
+    <t>Total ganancia</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +117,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +161,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -317,11 +345,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -363,6 +402,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,18 +413,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,117 +711,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" customWidth="1"/>
-    <col min="4" max="12" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="28" customWidth="1"/>
+    <col min="4" max="9" width="1.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="1.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="24" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.08984375" customWidth="1"/>
+    <col min="26" max="27" width="3" bestFit="1" customWidth="1"/>
     <col min="28" max="36" width="1.90625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="32" t="s">
+    <row r="1" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="28" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32">
+    <row r="2" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="34">
         <v>2019</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34">
         <v>2020</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34">
         <v>2021</v>
       </c>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="28"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="31"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="29"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -872,9 +926,10 @@
       <c r="AJ3" s="1">
         <v>9</v>
       </c>
-      <c r="AK3" s="28"/>
-    </row>
-    <row r="4" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="35"/>
+    </row>
+    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -911,7 +966,7 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="33"/>
+      <c r="AE4" s="27"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
@@ -920,8 +975,11 @@
       <c r="AK4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AL4" s="36">
+        <v>81060000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -958,7 +1016,7 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="33"/>
+      <c r="AE5" s="27"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
@@ -967,8 +1025,11 @@
       <c r="AK5" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AL5" s="36">
+        <v>84420000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1066,7 @@
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
-      <c r="AE6" s="33"/>
+      <c r="AE6" s="27"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
@@ -1014,8 +1075,11 @@
       <c r="AK6" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AL6" s="36">
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1116,7 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="33"/>
+      <c r="AE7" s="27"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -1061,8 +1125,11 @@
       <c r="AK7" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AL7" s="36">
+        <v>82460000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1166,7 @@
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="33"/>
+      <c r="AE8" s="27"/>
       <c r="AF8" s="15"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -1108,8 +1175,11 @@
       <c r="AK8" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="AL8" s="36">
+        <v>85120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1216,7 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="33"/>
+      <c r="AE9" s="27"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
@@ -1155,8 +1225,11 @@
       <c r="AK9" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="AL9" s="36">
+        <v>86660000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1265,7 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="33"/>
+      <c r="AE10" s="27"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
@@ -1201,8 +1274,11 @@
       <c r="AK10" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="AL10" s="36">
+        <v>83580000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1224,13 +1300,16 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="33"/>
+      <c r="AE11" s="27"/>
       <c r="AF11" s="15"/>
       <c r="AK11" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="AL11" s="36">
+        <v>82880000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1252,13 +1331,16 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="33"/>
+      <c r="AE12" s="27"/>
       <c r="AF12" s="15"/>
       <c r="AK12" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="AL12" s="36">
+        <v>85120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1376,7 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="33"/>
+      <c r="AE13" s="27"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
@@ -1303,8 +1385,11 @@
       <c r="AK13" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" ht="31" x14ac:dyDescent="0.35">
+      <c r="AL13" s="36">
+        <v>84140000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1326,14 +1411,111 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
-      <c r="AE14" s="33"/>
+      <c r="AE14" s="27"/>
       <c r="AF14" s="15"/>
       <c r="AK14" s="2">
         <v>13</v>
       </c>
+      <c r="AL14" s="36">
+        <v>84980000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="15"/>
+      <c r="AK15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL15" s="36">
+        <v>84560000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="15"/>
+      <c r="AK16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL16" s="36">
+        <v>83300000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="15"/>
+      <c r="AK17" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL17" s="36">
+        <v>86240000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="AK1:AK3"/>
     <mergeCell ref="C1:C3"/>
@@ -1345,4 +1527,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>86660000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>86240000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>85120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>85120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>84980000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>84560000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>84420000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>84140000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>83580000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>83300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>82880000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>82460000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>81060000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D15">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>